--- a/medicine/Enfance/Maurice_Chavardès/Maurice_Chavardès.xlsx
+++ b/medicine/Enfance/Maurice_Chavardès/Maurice_Chavardès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_Chavard%C3%A8s</t>
+          <t>Maurice_Chavardès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Chavardès, né à Narbonne, dans l'Aude, le 8 octobre 1918[1] et mort à Sète, dans l'Hérault, le 5 octobre 2005, est un journaliste et écrivain français, auteur de roman policier et d'ouvrages de littérature d'enfance et de jeunesse. Il écrivait aussi sous le pseudonyme de Max Nicet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Chavardès, né à Narbonne, dans l'Aude, le 8 octobre 1918 et mort à Sète, dans l'Hérault, le 5 octobre 2005, est un journaliste et écrivain français, auteur de roman policier et d'ouvrages de littérature d'enfance et de jeunesse. Il écrivait aussi sous le pseudonyme de Max Nicet.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maurice_Chavard%C3%A8s</t>
+          <t>Maurice_Chavardès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous son patronyme, il signe des chroniques littéraires dans Témoignage chrétien, un journal catholique de gauche fondé en 1941 pendant l’Occupation allemande par la Résistance.  Il a également collaboré à d'autres publications littéraires et intellectuelles.  En 1947, il épouse la romancière Marilène Clément.
 Il a été professeur de lettres jusqu'en 1962. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maurice_Chavard%C3%A8s</t>
+          <t>Maurice_Chavardès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,39 +560,337 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature d'enfance et de jeunesse
-Quand sonne minuit, Toulouse, Éditions du Clocher, 1950
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quand sonne minuit, Toulouse, Éditions du Clocher, 1950
 Le Mystère de la tour, Paris, Gautier-Languereau, coll. Jean-François, 1952
 La Cité des Guaranis, Paris, Robert Laffont, coll. Plein vent no 71, 1970
 Les Brebis du diable, Paris, Hachette, Bibliothèque rose, 1980 ; réédition, Bagneux, Le Livre de Paris, coll. Mickey club juniors, 1984
-L'Abricot de mai, Paris, Hachette, Bibliothèque rose, 1981
-Romans
-Signés Maurice Chavardès
-Le Rendez-vous de l'aube, Paris, Calmann-Lévy, 1953
+L'Abricot de mai, Paris, Hachette, Bibliothèque rose, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Signés Maurice Chavardès</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Rendez-vous de l'aube, Paris, Calmann-Lévy, 1953
 L'Accomplissement, Paris, Calmann-Lévy, 1964
 La Réparation (Les Impatients - tome 1), Paris, Albin Michel, 1971
 L'Attente (Les Impatients - tome 2), Paris, Albin Michel, 1973
-Le Partage (Les Impatients - tome 3), Paris, Albin Michel, 1977
-Signés Maurice et Marilène Chavardès
-Henri, Paris, Pierre Horay, 1959
+Le Partage (Les Impatients - tome 3), Paris, Albin Michel, 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Signés Maurice et Marilène Chavardès</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Henri, Paris, Pierre Horay, 1959
 Monique, Paris, Pierre Horay, 1959
-Jeanne, Paris, Pierre Horay, 1959
-Romans policiers
-Signés Max Nicet
-Une paroisse bien tranquille, Paris, Librairie des Champs-Élysées, Le Masque no 1236, 1972
-Requiem pour une rose, Paris, Librairie des Champs-Élysées, Le Masque no 1276, 1973
-Signé Maurice Chavardès
-Le Frelon, Arles, Actes Sud, coll. Polar Sud, 1990
-Poésie signée Maurice Chavardès
-Poème de Barbarie, Alès, Les Bibliophiles alésiens, 1945
-Théâtre signé Maurice Chavardès
-L'Autodafé, (pièce radiophonique), France-Culture, émission de Lily Siou, 1968
-Le Brasier de Montségur[2], Arles, Actes Sud (Théâtre), 1980
-Autres publications
-Signée Max Nicet
-Le Fils de l'homme, une vie de Jésus, Aurillac, Pierre Clairac, 1946
-Signées Maurice Chavardès
-Les Écrivains dans le siècle, Paris, P. Téqui, 1955
+Jeanne, Paris, Pierre Horay, 1959</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Signés Max Nicet</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une paroisse bien tranquille, Paris, Librairie des Champs-Élysées, Le Masque no 1236, 1972
+Requiem pour une rose, Paris, Librairie des Champs-Élysées, Le Masque no 1276, 1973</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Signé Maurice Chavardès</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Frelon, Arles, Actes Sud, coll. Polar Sud, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie signée Maurice Chavardès</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Poème de Barbarie, Alès, Les Bibliophiles alésiens, 1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Théâtre signé Maurice Chavardès</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'Autodafé, (pièce radiophonique), France-Culture, émission de Lily Siou, 1968
+Le Brasier de Montségur, Arles, Actes Sud (Théâtre), 1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Signée Max Nicet</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Fils de l'homme, une vie de Jésus, Aurillac, Pierre Clairac, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Signées Maurice Chavardès</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les Écrivains dans le siècle, Paris, P. Téqui, 1955
 La Chute de Constantinople : 29 mai 1453, Paris, Robert Laffont, 1963 (en collaboration avec Marilène Clément)
 Un ministre éducateur, Paris, Institut pédagogique nationale, 1965
 Les Grands Maîtres de l'éducation, Paris, Éditions du Sud et Albin Michel, 1966
@@ -587,9 +899,43 @@
 Histoire de la librairie, Paris, P. Waleffe, 1967
 Histoire de l'Espagne, Paris, P. Waleffe, 1967
 Une campagne de presse: la droite française et le 6 février 1934, Paris, Flammarion, coll. Questions d'histoire no 19, 1970
-Michel de Montaigne, Paris, Éditions Pierre Charron, 1972
-Entretiens avec des écrivains
-Bernard Clavel, Écrit sur la neige, propos recueillis par Maurice Chavardès, Paris, Stock, coll. Les Grands Auteurs, 1977
+Michel de Montaigne, Paris, Éditions Pierre Charron, 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Entretiens avec des écrivains</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bernard Clavel, Écrit sur la neige, propos recueillis par Maurice Chavardès, Paris, Stock, coll. Les Grands Auteurs, 1977
 Gilbert Cesbron, Ce qu'on appelle vivre, propos recueillis par Maurice Chavardès, Paris, Stock, coll. Les Grands Auteurs, 1977
 Henri Queffélec, Un Breton bien tranquille, propos recueillis par Maurice Chavardès, Paris, Stock, coll. Les Grands Auteurs, 1978
 Christiane Rochefort, Ma vie revue et corrigée par l'auteur, à partir d'entretiens avec Maurice Chavardès, Paris, Stock, coll. Les Grands Auteurs, 1978
@@ -607,31 +953,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Maurice_Chavard%C3%A8s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maurice_Chavardès</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Chavard%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Prix du roman d'aventures 1973 décerné à Requiem pour une rose</t>
         </is>
